--- a/LET Latchup Calculation Tool/Updet_rates.xlsx
+++ b/LET Latchup Calculation Tool/Updet_rates.xlsx
@@ -85,22 +85,22 @@
     <t>SSO</t>
   </si>
   <si>
-    <t>67 ± 16</t>
-  </si>
-  <si>
-    <t>157 ± 25</t>
-  </si>
-  <si>
-    <t>79 ± 18</t>
-  </si>
-  <si>
-    <t>18 ± 9</t>
-  </si>
-  <si>
-    <t>12 ± 7</t>
-  </si>
-  <si>
-    <t>11 ± 6</t>
+    <t>1050197 ± 2015</t>
+  </si>
+  <si>
+    <t>1729339 ± 2557</t>
+  </si>
+  <si>
+    <t>994330 ± 1963</t>
+  </si>
+  <si>
+    <t>691940 ± 1646</t>
+  </si>
+  <si>
+    <t>669412 ± 1619</t>
+  </si>
+  <si>
+    <t>648635 ± 1594</t>
   </si>
 </sst>
 </file>
@@ -493,19 +493,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>1732</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2">
-        <v>2.119595935202228E-06</v>
+        <v>3.971814316582419E-06</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.03327545664045178</v>
       </c>
       <c r="G2">
-        <v>2.119595935202228E-06</v>
+        <v>0.03327942845476837</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -516,19 +516,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>1732</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>4.980409717445434E-06</v>
+        <v>8.882264525529787E-06</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.05479168002045028</v>
       </c>
       <c r="G3">
-        <v>4.980409717445434E-06</v>
+        <v>0.0548005622849758</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -539,19 +539,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>2.49224511394079E-06</v>
+        <v>4.454442273150622E-06</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.03150460548355909</v>
       </c>
       <c r="G4">
-        <v>2.49224511394079E-06</v>
+        <v>0.03150905992583224</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -562,19 +562,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.346082431887336</v>
+        <v>0.001020648539211309</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>5.566046905580062E-07</v>
+        <v>1.28360586923339E-06</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.02192540723865312</v>
       </c>
       <c r="G5">
-        <v>5.566046905580062E-07</v>
+        <v>0.02192669084452236</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -591,13 +591,13 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3.741148132271993E-07</v>
+        <v>1.015162536506782E-06</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.02121180217775741</v>
       </c>
       <c r="G6">
-        <v>3.741148132271993E-07</v>
+        <v>0.02121281734029392</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -614,13 +614,13 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3.576467415852787E-07</v>
+        <v>9.771736112750524E-07</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.02055343631945025</v>
       </c>
       <c r="G7">
-        <v>3.576467415852787E-07</v>
+        <v>0.02055441349306152</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1E-08</v>
+        <v>6.6E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
